--- a/2_Project-Luther_Baseball-Data/playerawards.xlsx
+++ b/2_Project-Luther_Baseball-Data/playerawards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellyjones/metis/metis_bootcamp/2_Project-Luther_Baseball-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3466B4-CCE6-9144-856A-22FDE97C308A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AF8381-D45F-E645-B712-EF45505601BC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="860" windowWidth="17880" windowHeight="17540" activeTab="1" xr2:uid="{7EE0C75B-465C-A140-896A-C83AB8CC91B2}"/>
+    <workbookView xWindow="5320" yWindow="860" windowWidth="17880" windowHeight="17540" xr2:uid="{7EE0C75B-465C-A140-896A-C83AB8CC91B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1321,9 +1321,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F5C40D-BE08-4D46-9DC1-886F46402890}">
   <dimension ref="A1:E601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A514" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E530" sqref="E530:E550"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11677,7 +11677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8219289-8B97-2C4F-BB32-35B367A0DB39}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>

--- a/2_Project-Luther_Baseball-Data/playerawards.xlsx
+++ b/2_Project-Luther_Baseball-Data/playerawards.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellyjones/metis/metis_bootcamp/2_Project-Luther_Baseball-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AF8381-D45F-E645-B712-EF45505601BC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705C2106-F249-5945-9421-02E213D60BC2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="860" windowWidth="17880" windowHeight="17540" xr2:uid="{7EE0C75B-465C-A140-896A-C83AB8CC91B2}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="31700" windowHeight="19500" xr2:uid="{7EE0C75B-465C-A140-896A-C83AB8CC91B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Glossary" sheetId="2" r:id="rId2"/>
     <sheet name="Data - Drop NL" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1322,8 +1322,8 @@
   <dimension ref="A1:E601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H550" sqref="H550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11679,7 +11679,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
